--- a/src/main/resources/template/user.xlsx
+++ b/src/main/resources/template/user.xlsx
@@ -29,7 +29,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -43,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -89,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -106,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -119,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -136,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -154,7 +154,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>员工卡号</t>
   </si>
@@ -163,9 +163,6 @@
   </si>
   <si>
     <t>性别</t>
-  </si>
-  <si>
-    <t>出生日期</t>
   </si>
   <si>
     <t>站点</t>
@@ -289,7 +286,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1389,7 +1386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1399,20 +1396,19 @@
     <col min="2" max="2" width="10.8516" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.6719" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.6719" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6719" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85156" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.3516" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.8516" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.67188" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.35156" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.67188" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.1719" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.3516" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.3516" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.8516" style="1" customWidth="1"/>
-    <col min="18" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85156" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.8516" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.67188" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.35156" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.67188" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1719" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.3516" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.3516" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.8516" style="1" customWidth="1"/>
+    <col min="17" max="256" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
@@ -1464,9 +1460,6 @@
       <c r="P1" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="Q1" t="s" s="2">
-        <v>16</v>
-      </c>
     </row>
     <row r="2" ht="15" customHeight="1">
       <c r="A2" s="3"/>
@@ -1485,7 +1478,6 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" s="3"/>
@@ -1504,7 +1496,6 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
     </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" s="3"/>
@@ -1523,7 +1514,6 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" s="3"/>
@@ -1542,7 +1532,6 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" s="3"/>
@@ -1561,7 +1550,6 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" s="3"/>
@@ -1580,7 +1568,6 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" s="3"/>
@@ -1599,7 +1586,6 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" s="3"/>
@@ -1618,7 +1604,6 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" s="3"/>
@@ -1637,7 +1622,6 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51" footer="0.51"/>

--- a/src/main/resources/template/user.xlsx
+++ b/src/main/resources/template/user.xlsx
@@ -1,12 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisx/Ducetech/bjys/schedule-platform/src/main/resources/template/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180"/>
   </bookViews>
   <sheets>
-    <sheet name="人员信息模板" sheetId="1" r:id="rId4"/>
+    <sheet name="人员信息模板" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -14,6 +27,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hongyangliao</author>
+    <author>Microsoft Office 用户</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0">
@@ -24,8 +38,8 @@
             <color indexed="9"/>
             <rFont val="Helvetica Neue"/>
           </rPr>
-          <t>hongyangliao:
-员工卡号</t>
+          <t xml:space="preserve">
+员工卡号8位或不填</t>
         </r>
       </text>
     </comment>
@@ -37,23 +51,33 @@
             <color indexed="9"/>
             <rFont val="Helvetica Neue"/>
           </rPr>
-          <t>hongyangliao:
+          <t xml:space="preserve">
 如 西直门站
 需要和系统中站点名称相同</t>
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="H1" authorId="1">
       <text>
         <r>
           <rPr>
+            <b/>
             <sz val="11"/>
-            <color indexed="9"/>
-            <rFont val="Helvetica Neue"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
           </rPr>
-          <t>hongyangliao:
-站务员
-替班员</t>
+          <t>Microsoft Office 用户:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+18位</t>
         </r>
       </text>
     </comment>
@@ -65,13 +89,13 @@
             <color indexed="9"/>
             <rFont val="Helvetica Neue"/>
           </rPr>
-          <t>hongyangliao:
+          <t xml:space="preserve">
 无
 有</t>
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="Q1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -79,17 +103,12 @@
             <color indexed="9"/>
             <rFont val="Helvetica Neue"/>
           </rPr>
-          <t>hongyangliao:
-初中
-高中
-大专
-本科
-硕士
-博士</t>
+          <t xml:space="preserve">
+如 2016-08-19</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -97,16 +116,16 @@
             <color indexed="9"/>
             <rFont val="Helvetica Neue"/>
           </rPr>
-          <t>hongyangliao:
-无
-初级
-中级
-高级
-技师</t>
+          <t xml:space="preserve">
+中共党员
+中共预备党员
+共青团员
+群众
+其</t>
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -114,37 +133,7 @@
             <color indexed="9"/>
             <rFont val="Helvetica Neue"/>
           </rPr>
-          <t>hongyangliao:
-如 2016-08-19</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="9"/>
-            <rFont val="Helvetica Neue"/>
-          </rPr>
-          <t>hongyangliao:
-中共党员
-中共预备党员
-共青团员
-群众
-其他</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="9"/>
-            <rFont val="Helvetica Neue"/>
-          </rPr>
-          <t>hongyangliao:
+          <t xml:space="preserve">
 如 2017-09-21</t>
         </r>
       </text>
@@ -154,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>员工卡号</t>
   </si>
@@ -166,9 +155,6 @@
   </si>
   <si>
     <t>站点</t>
-  </si>
-  <si>
-    <t>岗位</t>
   </si>
   <si>
     <t>电话</t>
@@ -189,12 +175,6 @@
     <t>学历</t>
   </si>
   <si>
-    <t>资格证书编号</t>
-  </si>
-  <si>
-    <t>资格证书级别</t>
-  </si>
-  <si>
     <t>入职时间</t>
   </si>
   <si>
@@ -203,27 +183,65 @@
   <si>
     <t>入党\团时间</t>
   </si>
+  <si>
+    <t>综控员证书编号</t>
+    <rPh sb="0" eb="1">
+      <t>zong'kong'y</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消防证书编号</t>
+    <rPh sb="0" eb="1">
+      <t>xiao'f</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>综控员证书级别</t>
+    <rPh sb="0" eb="1">
+      <t>zong'kong'y</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>站务员证书编号</t>
+    <rPh sb="0" eb="1">
+      <t>zhan'wu'y</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zheng's</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>bian'h</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>站务员证书等级</t>
+    <rPh sb="0" eb="1">
+      <t>zhan'wu'y</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zheng's</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>deng'ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="9"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -231,6 +249,35 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -271,55 +318,116 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff333333"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="000000D4"/>
+      <rgbColor rgb="00FCF305"/>
+      <rgbColor rgb="00F20884"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -451,7 +559,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -527,7 +635,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -546,7 +654,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -576,7 +684,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -602,7 +710,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -628,7 +736,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -654,7 +762,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -680,7 +788,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -706,7 +814,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -732,7 +840,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -758,7 +866,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -784,7 +892,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -797,9 +905,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -814,7 +928,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -822,7 +936,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -841,7 +955,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -867,7 +981,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -893,7 +1007,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -919,7 +1033,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -945,7 +1059,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -971,7 +1085,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -997,7 +1111,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1023,7 +1137,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1049,7 +1163,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1075,7 +1189,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1088,9 +1202,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1104,7 +1224,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1123,7 +1243,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1153,7 +1273,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1179,7 +1299,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1205,7 +1325,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1231,7 +1351,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1257,7 +1377,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1283,7 +1403,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1309,7 +1429,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1335,7 +1455,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1361,7 +1481,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1374,94 +1494,114 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IY10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.8516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6719" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6719" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85156" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="16" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.8516" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.67188" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.35156" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.67188" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.1719" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.3516" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.3516" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.8516" style="1" customWidth="1"/>
-    <col min="17" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" style="1" customWidth="1"/>
+    <col min="15" max="16" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.33203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.83203125" style="1" customWidth="1"/>
+    <col min="20" max="259" width="8.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="L1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="R1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="S1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s" s="2">
-        <v>15</v>
-      </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2"/>
@@ -1478,8 +1618,11 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1496,8 +1639,11 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1514,8 +1660,11 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1532,8 +1681,11 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1550,8 +1702,11 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1568,8 +1723,11 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1586,8 +1744,11 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1604,8 +1765,11 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1622,14 +1786,17 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51" footer="0.51"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/template/user.xlsx
+++ b/src/main/resources/template/user.xlsx
@@ -43,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="1">
+    <comment ref="I1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -81,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -95,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -108,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -125,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0">
+    <comment ref="T1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>员工卡号</t>
   </si>
@@ -232,6 +232,16 @@
   </si>
   <si>
     <t>岗位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员编码</t>
+    <rPh sb="0" eb="1">
+      <t>ren'y</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bian'm</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1513,99 +1523,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IY10"/>
+  <dimension ref="A1:IZ10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" style="1" customWidth="1"/>
-    <col min="15" max="16" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.33203125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.83203125" style="1" customWidth="1"/>
-    <col min="20" max="259" width="8.83203125" style="1" customWidth="1"/>
+    <col min="1" max="2" width="11.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" style="1" customWidth="1"/>
+    <col min="16" max="17" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.33203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10.33203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.83203125" style="1" customWidth="1"/>
+    <col min="21" max="260" width="8.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -1621,8 +1634,9 @@
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
     </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1642,8 +1656,9 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
     </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1663,8 +1678,9 @@
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
     </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1684,8 +1700,9 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
     </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1705,8 +1722,9 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
     </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1726,8 +1744,9 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
     </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1747,8 +1766,9 @@
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
     </row>
-    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1768,8 +1788,9 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1789,6 +1810,7 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
